--- a/biology/Botanique/Kimjongilia/Kimjongilia.xlsx
+++ b/biology/Botanique/Kimjongilia/Kimjongilia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia × tuberhybrida 'Kimjongilhwa' ou Kimjongilia, dont le nom fait référence au dirigeant nord-coréen Kim Jong-il, est un cultivar de bégonia tubéreux à fleurs rouges, créé par l'horticulteur japonais Kamo Mototeru en février 1988, à l'occasion du quarante-sixième anniversaire du dirigeant Kim Jong-il[1],[2].
-Selon l'agence officielle nord-coréenne KCNA, le Kimjongilia est cultivé dans plus d'une soixantaine de pays, dont le Viêt Nam, la Syrie, Singapour, Cuba, l'Autriche, la Suède et les États-Unis[3]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia × tuberhybrida 'Kimjongilhwa' ou Kimjongilia, dont le nom fait référence au dirigeant nord-coréen Kim Jong-il, est un cultivar de bégonia tubéreux à fleurs rouges, créé par l'horticulteur japonais Kamo Mototeru en février 1988, à l'occasion du quarante-sixième anniversaire du dirigeant Kim Jong-il,.
+Selon l'agence officielle nord-coréenne KCNA, le Kimjongilia est cultivé dans plus d'une soixantaine de pays, dont le Viêt Nam, la Syrie, Singapour, Cuba, l'Autriche, la Suède et les États-Unis
 Depuis 1997, des expositions de Kimjongilia se tiennent à Pyongyang lors des cérémonies marquant l'anniversaire du dirigeant Kim Jong-il, le 16 février. 
 Le Kimjongilia a reçu un prix spécial et une médaille d’or à la 12e exposition florale de Bratislava, en Slovaquie et le grand prix et le certificat à l’exposition internationale horticole de Kunning en 1999, en Chine. La fleur a aussi remporté le 1er prix à l’exposition récente du bégonia qui s'est tenue à San Diego, en Californie (États-Unis).
-En 2004, la société internationale des sciences horticoles (SISH) a formellement enregistré Kimjongilia comme une nouvelle variété de bégonia, sous le nom de Begonia ×tuberhybrida Voss 'Kimjongilhwa'[4]. 
-Un musée consacré aux Kimjongilia existe en Corée du Nord[5].
+En 2004, la société internationale des sciences horticoles (SISH) a formellement enregistré Kimjongilia comme une nouvelle variété de bégonia, sous le nom de Begonia ×tuberhybrida Voss 'Kimjongilhwa'. 
+Un musée consacré aux Kimjongilia existe en Corée du Nord.
 </t>
         </is>
       </c>
